--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ceacam1-Cd209e.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ceacam1-Cd209e.xlsx
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,28 +540,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.97243866666667</v>
+        <v>30.93275633333333</v>
       </c>
       <c r="H2">
-        <v>101.917316</v>
+        <v>92.798269</v>
       </c>
       <c r="I2">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="J2">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.02226066666666667</v>
+        <v>0.125191</v>
       </c>
       <c r="N2">
-        <v>0.06678200000000001</v>
+        <v>0.375573</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.7562491330124446</v>
+        <v>3.872502698126333</v>
       </c>
       <c r="R2">
-        <v>6.806242197112001</v>
+        <v>34.852524283137</v>
       </c>
       <c r="S2">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
       <c r="T2">
-        <v>0.5080457863598148</v>
+        <v>0.6015903584115317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -608,22 +608,22 @@
         <v>0.414757</v>
       </c>
       <c r="I3">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="J3">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.02226066666666667</v>
+        <v>0.125191</v>
       </c>
       <c r="N3">
-        <v>0.06678200000000001</v>
+        <v>0.375573</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.003077589108222222</v>
+        <v>0.01730794786233333</v>
       </c>
       <c r="R3">
-        <v>0.02769830197400001</v>
+        <v>0.155771530761</v>
       </c>
       <c r="S3">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
       <c r="T3">
-        <v>0.00206751467251392</v>
+        <v>0.002688776579266707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.21179933333333</v>
+        <v>13.65672433333333</v>
       </c>
       <c r="H4">
-        <v>30.635398</v>
+        <v>40.970173</v>
       </c>
       <c r="I4">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="J4">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02226066666666667</v>
+        <v>0.125191</v>
       </c>
       <c r="N4">
-        <v>0.06678200000000001</v>
+        <v>0.375573</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2273214610262222</v>
+        <v>1.709698976014334</v>
       </c>
       <c r="R4">
-        <v>2.045893149236</v>
+        <v>15.387290784129</v>
       </c>
       <c r="S4">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
       <c r="T4">
-        <v>0.1527138417514438</v>
+        <v>0.2656004398018724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,28 +726,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1262346666666667</v>
+        <v>0.1180373333333333</v>
       </c>
       <c r="H5">
-        <v>0.378704</v>
+        <v>0.354112</v>
       </c>
       <c r="I5">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="J5">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02226066666666667</v>
+        <v>0.125191</v>
       </c>
       <c r="N5">
-        <v>0.06678200000000001</v>
+        <v>0.375573</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.002810067836444445</v>
+        <v>0.01477721179733333</v>
       </c>
       <c r="R5">
-        <v>0.02529061052800001</v>
+        <v>0.132994906176</v>
       </c>
       <c r="S5">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
       <c r="T5">
-        <v>0.001887794724476529</v>
+        <v>0.002295628650118725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,28 +788,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.42012733333333</v>
+        <v>6.572534333333333</v>
       </c>
       <c r="H6">
-        <v>67.26038199999999</v>
+        <v>19.717603</v>
       </c>
       <c r="I6">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="J6">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02226066666666667</v>
+        <v>0.125191</v>
       </c>
       <c r="N6">
-        <v>0.06678200000000001</v>
+        <v>0.375573</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.4990869811915555</v>
+        <v>0.8228221457243332</v>
       </c>
       <c r="R6">
-        <v>4.491782830724</v>
+        <v>7.405399311518998</v>
       </c>
       <c r="S6">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
       <c r="T6">
-        <v>0.3352850624917509</v>
+        <v>0.1278247965572105</v>
       </c>
     </row>
   </sheetData>
